--- a/va_facility_data_2025-02-20/Fort Meade VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fort%20Meade%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Meade VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fort%20Meade%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R39e6d123cc694067846318d503c47539"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R367320bf293b4e4997966f6480aec31c"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb40fd1cbe20b46b690468528b4af00fc"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R2ec70e9755674e33b1a123d1d3eb3474"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R91ca6ddaefa349388969df8ddb3f7d02"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd866f14aa90a421c8ac069d7042335cb"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Receba9e965ba47cba1cefc633a4cb050"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R73fbdab563514f5fabe47033909543bb"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra153785671fd4061ba4d943639c60e22"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R4d155adb21a647e7bda9493a9b607c6b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4997d5a2d3044776b313e6a3eea50ff5"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R67a696fbe35b473ca3ececa35b1c6c1d"/>
   </x:sheets>
 </x:workbook>
 </file>
